--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -1,40 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -42,105 +53,52 @@
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" quotePrefix="0" pivotButton="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -186,13 +144,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -220,13 +178,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -423,115 +381,442 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="2" max="2" width="9.8515625"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Balance</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Wins</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>45326</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2">
         <v>100</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>45326</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3">
         <v>90</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>45326</v>
       </c>
-      <c r="B4" t="n">
-        <v>96.33802816901408</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="C4">
+        <v>96.338028169014081</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
         <v>45326</v>
       </c>
-      <c r="B5" t="n">
-        <v>86.70422535211267</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="C5">
+        <v>86.704225352112672</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
         <v>45326</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6">
         <v>78.0338028169014</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
         <v>45326</v>
       </c>
-      <c r="B7" t="n">
-        <v>70.23042253521126</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="C7">
+        <v>70.230422535211261</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
         <v>45326</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8">
         <v>71.77394830521591</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8">
         <v>2</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C9">
+        <v>73.854352603917818</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C10">
+        <v>74.525755809407968</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C11">
+        <v>79.33386908743428</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C12">
+        <v>71.400482178690851</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C13">
+        <v>83.538564149068307</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C14">
+        <v>75.184707734161478</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C15">
+        <v>79.713906995255542</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="C3" t="n">
         <v>90</v>
@@ -487,7 +487,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="C4" t="n">
         <v>96.33802816901408</v>
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="C5" t="n">
         <v>86.70422535211267</v>
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="C6" t="n">
         <v>78.0338028169014</v>
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="C7" t="n">
         <v>70.23042253521126</v>
@@ -543,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="C8" t="n">
         <v>71.77394830521591</v>
@@ -557,13 +557,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="C9" t="n">
-        <v>73.85435260391782</v>
+        <v>64.59655347469432</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -571,13 +571,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="C10" t="n">
-        <v>74.52575580940797</v>
+        <v>65.63009833028943</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -585,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="C11" t="n">
-        <v>79.33386908743428</v>
+        <v>67.53242002102246</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="C12" t="n">
-        <v>71.40048217869085</v>
+        <v>68.14635111212266</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
@@ -613,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="C13" t="n">
-        <v>83.53856414906831</v>
+        <v>72.54288989354993</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -627,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="C14" t="n">
-        <v>75.18470773416148</v>
+        <v>65.28860090419494</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -641,10 +641,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="C15" t="n">
-        <v>79.71390699525554</v>
+        <v>76.38766305790807</v>
       </c>
       <c r="D15" t="n">
         <v>7</v>
@@ -658,7 +658,7 @@
         <v>45330</v>
       </c>
       <c r="C16" t="n">
-        <v>80.98932950717963</v>
+        <v>86.31805925543611</v>
       </c>
       <c r="D16" t="n">
         <v>8</v>
@@ -672,10 +672,10 @@
         <v>45330</v>
       </c>
       <c r="C17" t="n">
-        <v>72.89039655646167</v>
+        <v>91.51794234311298</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -686,10 +686,10 @@
         <v>45330</v>
       </c>
       <c r="C18" t="n">
-        <v>73.80152651341744</v>
+        <v>92.98222942060279</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -700,10 +700,10 @@
         <v>45330</v>
       </c>
       <c r="C19" t="n">
-        <v>66.4213738620757</v>
+        <v>96.24476378623798</v>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -714,10 +714,10 @@
         <v>45330</v>
       </c>
       <c r="C20" t="n">
-        <v>68.34663107546919</v>
+        <v>97.44782333356596</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -728,10 +728,10 @@
         <v>45330</v>
       </c>
       <c r="C21" t="n">
-        <v>61.51196796792227</v>
+        <v>87.70304100020937</v>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -742,10 +742,122 @@
         <v>45330</v>
       </c>
       <c r="C22" t="n">
-        <v>55.36077117113005</v>
+        <v>90.24515813065022</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C23" t="n">
+        <v>81.2206423175852</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C24" t="n">
+        <v>73.09857808582669</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C25" t="n">
+        <v>65.78872027724402</v>
+      </c>
+      <c r="D25" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C26" t="n">
+        <v>66.10199989761186</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C27" t="n">
+        <v>71.18676912050508</v>
+      </c>
+      <c r="D27" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C28" t="n">
+        <v>71.77999219650928</v>
+      </c>
+      <c r="D28" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C29" t="n">
+        <v>64.60199297685836</v>
+      </c>
+      <c r="D29" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C30" t="n">
+        <v>72.35423213408136</v>
+      </c>
+      <c r="D30" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,6 +860,188 @@
         <v>17</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C31" t="n">
+        <v>80.60261459736662</v>
+      </c>
+      <c r="D31" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C32" t="n">
+        <v>81.15849469803811</v>
+      </c>
+      <c r="D32" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C33" t="n">
+        <v>84.88136142730592</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C34" t="n">
+        <v>76.39322528457532</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C35" t="n">
+        <v>80.75855244369392</v>
+      </c>
+      <c r="D35" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C36" t="n">
+        <v>92.22626689069844</v>
+      </c>
+      <c r="D36" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C37" t="n">
+        <v>94.89949201796506</v>
+      </c>
+      <c r="D37" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C38" t="n">
+        <v>85.40954281616855</v>
+      </c>
+      <c r="D38" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C39" t="n">
+        <v>89.7231560897124</v>
+      </c>
+      <c r="D39" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C40" t="n">
+        <v>99.59270325958077</v>
+      </c>
+      <c r="D40" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C41" t="n">
+        <v>103.0871840757064</v>
+      </c>
+      <c r="D41" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C42" t="n">
+        <v>107.5692355572589</v>
+      </c>
+      <c r="D42" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C43" t="n">
+        <v>114.049309988419</v>
+      </c>
+      <c r="D43" t="n">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,6 +1042,146 @@
         <v>28</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C44" t="n">
+        <v>102.6443789895771</v>
+      </c>
+      <c r="D44" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C45" t="n">
+        <v>92.37994109061938</v>
+      </c>
+      <c r="D45" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C46" t="n">
+        <v>83.14194698155744</v>
+      </c>
+      <c r="D46" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C47" t="n">
+        <v>74.82775228340169</v>
+      </c>
+      <c r="D47" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C48" t="n">
+        <v>67.34497705506152</v>
+      </c>
+      <c r="D48" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C49" t="n">
+        <v>73.9474257859499</v>
+      </c>
+      <c r="D49" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C50" t="n">
+        <v>75.81951251470812</v>
+      </c>
+      <c r="D50" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C51" t="n">
+        <v>76.71150677958704</v>
+      </c>
+      <c r="D51" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C52" t="n">
+        <v>69.04035610162833</v>
+      </c>
+      <c r="D52" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C53" t="n">
+        <v>62.1363204914655</v>
+      </c>
+      <c r="D53" t="n">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,6 +1182,90 @@
         <v>31</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C54" t="n">
+        <v>63.79328903790458</v>
+      </c>
+      <c r="D54" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C55" t="n">
+        <v>68.28577418141899</v>
+      </c>
+      <c r="D55" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C56" t="n">
+        <v>61.45719676327709</v>
+      </c>
+      <c r="D56" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C57" t="n">
+        <v>64.45510880051012</v>
+      </c>
+      <c r="D57" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C58" t="n">
+        <v>66.24552848941318</v>
+      </c>
+      <c r="D58" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C59" t="n">
+        <v>67.51948096036342</v>
+      </c>
+      <c r="D59" t="n">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1266,6 +1266,188 @@
         <v>36</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C60" t="n">
+        <v>60.76753286432708</v>
+      </c>
+      <c r="D60" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C61" t="n">
+        <v>54.69077957789438</v>
+      </c>
+      <c r="D61" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C62" t="n">
+        <v>49.22170162010494</v>
+      </c>
+      <c r="D62" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C63" t="n">
+        <v>50.51700955747612</v>
+      </c>
+      <c r="D63" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C64" t="n">
+        <v>53.56020290431204</v>
+      </c>
+      <c r="D64" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C65" t="n">
+        <v>54.09580493335515</v>
+      </c>
+      <c r="D65" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C66" t="n">
+        <v>54.66523445896942</v>
+      </c>
+      <c r="D66" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C67" t="n">
+        <v>49.19871101307248</v>
+      </c>
+      <c r="D67" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C68" t="n">
+        <v>49.98589038928164</v>
+      </c>
+      <c r="D68" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C69" t="n">
+        <v>44.98730135035347</v>
+      </c>
+      <c r="D69" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C70" t="n">
+        <v>45.48716025424629</v>
+      </c>
+      <c r="D70" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C71" t="n">
+        <v>40.93844422882166</v>
+      </c>
+      <c r="D71" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C72" t="n">
+        <v>36.8445998059395</v>
+      </c>
+      <c r="D72" t="n">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1448,6 +1448,48 @@
         <v>42</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C73" t="n">
+        <v>33.16013982534555</v>
+      </c>
+      <c r="D73" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C74" t="n">
+        <v>29.844125842811</v>
+      </c>
+      <c r="D74" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C75" t="n">
+        <v>30.5463405685242</v>
+      </c>
+      <c r="D75" t="n">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1490,6 +1490,174 @@
         <v>43</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C76" t="n">
+        <v>27.49170651167178</v>
+      </c>
+      <c r="D76" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C77" t="n">
+        <v>27.94990162019965</v>
+      </c>
+      <c r="D77" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C78" t="n">
+        <v>25.15491145817968</v>
+      </c>
+      <c r="D78" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C79" t="n">
+        <v>27.34229506323879</v>
+      </c>
+      <c r="D79" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C80" t="n">
+        <v>29.44554852964177</v>
+      </c>
+      <c r="D80" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C81" t="n">
+        <v>31.6267002725782</v>
+      </c>
+      <c r="D81" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C82" t="n">
+        <v>32.76435136151986</v>
+      </c>
+      <c r="D82" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C83" t="n">
+        <v>33.94292515150259</v>
+      </c>
+      <c r="D83" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C84" t="n">
+        <v>30.54863263635233</v>
+      </c>
+      <c r="D84" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C85" t="n">
+        <v>30.75931286143062</v>
+      </c>
+      <c r="D85" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C86" t="n">
+        <v>32.83764481152728</v>
+      </c>
+      <c r="D86" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C87" t="n">
+        <v>33.30675402312053</v>
+      </c>
+      <c r="D87" t="n">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,6 +1658,174 @@
         <v>52</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C88" t="n">
+        <v>29.97607862080848</v>
+      </c>
+      <c r="D88" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C89" t="n">
+        <v>26.97847075872763</v>
+      </c>
+      <c r="D89" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C90" t="n">
+        <v>27.14708620096968</v>
+      </c>
+      <c r="D90" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C91" t="n">
+        <v>27.80921025465187</v>
+      </c>
+      <c r="D91" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C92" t="n">
+        <v>25.02828922918668</v>
+      </c>
+      <c r="D92" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C93" t="n">
+        <v>22.52546030626801</v>
+      </c>
+      <c r="D93" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C94" t="n">
+        <v>23.05547113700373</v>
+      </c>
+      <c r="D94" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C95" t="n">
+        <v>23.31164303852599</v>
+      </c>
+      <c r="D95" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C96" t="n">
+        <v>23.80763544360101</v>
+      </c>
+      <c r="D96" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C97" t="n">
+        <v>21.42687189924091</v>
+      </c>
+      <c r="D97" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C98" t="n">
+        <v>19.28418470931682</v>
+      </c>
+      <c r="D98" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C99" t="n">
+        <v>19.87754423883426</v>
+      </c>
+      <c r="D99" t="n">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1826,6 +1826,160 @@
         <v>58</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C100" t="n">
+        <v>17.88978981495083</v>
+      </c>
+      <c r="D100" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C101" t="n">
+        <v>18.91206351866231</v>
+      </c>
+      <c r="D101" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C102" t="n">
+        <v>20.80326987052854</v>
+      </c>
+      <c r="D102" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C103" t="n">
+        <v>21.12332017622898</v>
+      </c>
+      <c r="D103" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C104" t="n">
+        <v>19.01098815860608</v>
+      </c>
+      <c r="D104" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C105" t="n">
+        <v>19.80976917367357</v>
+      </c>
+      <c r="D105" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C106" t="n">
+        <v>17.82879225630621</v>
+      </c>
+      <c r="D106" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C107" t="n">
+        <v>19.52677247119252</v>
+      </c>
+      <c r="D107" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C108" t="n">
+        <v>20.24998626642187</v>
+      </c>
+      <c r="D108" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C109" t="n">
+        <v>22.76098456345818</v>
+      </c>
+      <c r="D109" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C110" t="n">
+        <v>20.48488610711236</v>
+      </c>
+      <c r="D110" t="n">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1980,6 +1980,62 @@
         <v>65</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C111" t="n">
+        <v>18.43639749640112</v>
+      </c>
+      <c r="D111" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C112" t="n">
+        <v>18.73137985634354</v>
+      </c>
+      <c r="D112" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C113" t="n">
+        <v>20.17225522990843</v>
+      </c>
+      <c r="D113" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C114" t="n">
+        <v>18.15502970691759</v>
+      </c>
+      <c r="D114" t="n">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2036,6 +2036,160 @@
         <v>67</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C115" t="n">
+        <v>18.44551018222827</v>
+      </c>
+      <c r="D115" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C116" t="n">
+        <v>19.47026074790762</v>
+      </c>
+      <c r="D116" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C117" t="n">
+        <v>19.96317874152553</v>
+      </c>
+      <c r="D117" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C118" t="n">
+        <v>20.2293544580792</v>
+      </c>
+      <c r="D118" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C119" t="n">
+        <v>21.78545864716222</v>
+      </c>
+      <c r="D119" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C120" t="n">
+        <v>19.606912782446</v>
+      </c>
+      <c r="D120" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C121" t="n">
+        <v>19.79364528513596</v>
+      </c>
+      <c r="D121" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C122" t="n">
+        <v>19.93015318365413</v>
+      </c>
+      <c r="D122" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C123" t="n">
+        <v>17.93713786528872</v>
+      </c>
+      <c r="D123" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C124" t="n">
+        <v>18.2958806225945</v>
+      </c>
+      <c r="D124" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C125" t="n">
+        <v>18.9540058248461</v>
+      </c>
+      <c r="D125" t="n">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,6 +2190,90 @@
         <v>76</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C126" t="n">
+        <v>17.05860524236149</v>
+      </c>
+      <c r="D126" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C127" t="n">
+        <v>17.77535336178844</v>
+      </c>
+      <c r="D127" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C128" t="n">
+        <v>20.79716343329248</v>
+      </c>
+      <c r="D128" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C129" t="n">
+        <v>21.07445894573638</v>
+      </c>
+      <c r="D129" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C130" t="n">
+        <v>21.78165555465371</v>
+      </c>
+      <c r="D130" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C131" t="n">
+        <v>19.60348999918834</v>
+      </c>
+      <c r="D131" t="n">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2274,6 +2274,118 @@
         <v>80</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C132" t="n">
+        <v>19.8835398563196</v>
+      </c>
+      <c r="D132" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C133" t="n">
+        <v>20.67888145057238</v>
+      </c>
+      <c r="D133" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C134" t="n">
+        <v>18.61099330551514</v>
+      </c>
+      <c r="D134" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C135" t="n">
+        <v>20.13648456006556</v>
+      </c>
+      <c r="D135" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C136" t="n">
+        <v>18.12283610405901</v>
+      </c>
+      <c r="D136" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C137" t="n">
+        <v>18.60611173350058</v>
+      </c>
+      <c r="D137" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C138" t="n">
+        <v>19.54581434630364</v>
+      </c>
+      <c r="D138" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C139" t="n">
+        <v>20.02254152548178</v>
+      </c>
+      <c r="D139" t="n">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2386,6 +2386,132 @@
         <v>86</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C140" t="n">
+        <v>20.35625055090648</v>
+      </c>
+      <c r="D140" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C141" t="n">
+        <v>20.8715986661193</v>
+      </c>
+      <c r="D141" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C142" t="n">
+        <v>21.39999356905902</v>
+      </c>
+      <c r="D142" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C143" t="n">
+        <v>22.78063831544993</v>
+      </c>
+      <c r="D143" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C144" t="n">
+        <v>23.89188896498407</v>
+      </c>
+      <c r="D144" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C145" t="n">
+        <v>21.50270006848566</v>
+      </c>
+      <c r="D145" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C146" t="n">
+        <v>19.3524300616371</v>
+      </c>
+      <c r="D146" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C147" t="n">
+        <v>20.42756506506138</v>
+      </c>
+      <c r="D147" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C148" t="n">
+        <v>20.56844482413077</v>
+      </c>
+      <c r="D148" t="n">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2512,6 +2512,76 @@
         <v>93</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C149" t="n">
+        <v>22.52734433119084</v>
+      </c>
+      <c r="D149" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C150" t="n">
+        <v>23.30414930812845</v>
+      </c>
+      <c r="D150" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C151" t="n">
+        <v>20.97373437731561</v>
+      </c>
+      <c r="D151" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C152" t="n">
+        <v>22.88043750252612</v>
+      </c>
+      <c r="D152" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C153" t="n">
+        <v>20.59239375227351</v>
+      </c>
+      <c r="D153" t="n">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2582,6 +2582,118 @@
         <v>96</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C154" t="n">
+        <v>18.53315437704616</v>
+      </c>
+      <c r="D154" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C155" t="n">
+        <v>18.92747681060033</v>
+      </c>
+      <c r="D155" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C156" t="n">
+        <v>17.0347291295403</v>
+      </c>
+      <c r="D156" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C157" t="n">
+        <v>17.3186412816993</v>
+      </c>
+      <c r="D157" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C158" t="n">
+        <v>17.89980374081673</v>
+      </c>
+      <c r="D158" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C159" t="n">
+        <v>16.10982336673506</v>
+      </c>
+      <c r="D159" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C160" t="n">
+        <v>14.49884103006155</v>
+      </c>
+      <c r="D160" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C161" t="n">
+        <v>13.0489569270554</v>
+      </c>
+      <c r="D161" t="n">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2694,6 +2694,90 @@
         <v>99</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.74406123434986</v>
+      </c>
+      <c r="D162" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12.33719564012511</v>
+      </c>
+      <c r="D163" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C164" t="n">
+        <v>12.44000560379282</v>
+      </c>
+      <c r="D164" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C165" t="n">
+        <v>12.99289474173916</v>
+      </c>
+      <c r="D165" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.69360526756525</v>
+      </c>
+      <c r="D166" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C167" t="n">
+        <v>10.52424474080872</v>
+      </c>
+      <c r="D167" t="n">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2778,6 +2778,132 @@
         <v>102</v>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C168" t="n">
+        <v>10.80489126723029</v>
+      </c>
+      <c r="D168" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9.724402140507257</v>
+      </c>
+      <c r="D169" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C170" t="n">
+        <v>9.95321160263684</v>
+      </c>
+      <c r="D170" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C171" t="n">
+        <v>10.11246298827903</v>
+      </c>
+      <c r="D171" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C172" t="n">
+        <v>11.01536146937537</v>
+      </c>
+      <c r="D172" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C173" t="n">
+        <v>9.913825322437834</v>
+      </c>
+      <c r="D173" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C174" t="n">
+        <v>10.21886610158977</v>
+      </c>
+      <c r="D174" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C175" t="n">
+        <v>9.196979491430792</v>
+      </c>
+      <c r="D175" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C176" t="n">
+        <v>8.277281542287712</v>
+      </c>
+      <c r="D176" t="n">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2904,6 +2904,118 @@
         <v>107</v>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C177" t="n">
+        <v>8.567712473596051</v>
+      </c>
+      <c r="D177" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C178" t="n">
+        <v>8.899794352417604</v>
+      </c>
+      <c r="D178" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C179" t="n">
+        <v>8.009814917175843</v>
+      </c>
+      <c r="D179" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8.573886390216396</v>
+      </c>
+      <c r="D180" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C181" t="n">
+        <v>7.716497751194757</v>
+      </c>
+      <c r="D181" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8.192824772873445</v>
+      </c>
+      <c r="D182" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C183" t="n">
+        <v>8.27475302060218</v>
+      </c>
+      <c r="D183" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C184" t="n">
+        <v>7.447277718541962</v>
+      </c>
+      <c r="D184" t="n">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3016,6 +3016,104 @@
         <v>112</v>
       </c>
     </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C185" t="n">
+        <v>6.702549946687766</v>
+      </c>
+      <c r="D185" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6.032294952018989</v>
+      </c>
+      <c r="D186" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C187" t="n">
+        <v>6.346476980769978</v>
+      </c>
+      <c r="D187" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C188" t="n">
+        <v>6.473406520385377</v>
+      </c>
+      <c r="D188" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C189" t="n">
+        <v>7.036311435201497</v>
+      </c>
+      <c r="D189" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C190" t="n">
+        <v>6.332680291681347</v>
+      </c>
+      <c r="D190" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C191" t="n">
+        <v>6.442813861971458</v>
+      </c>
+      <c r="D191" t="n">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3114,6 +3114,118 @@
         <v>116</v>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5.798532475774312</v>
+      </c>
+      <c r="D192" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C193" t="n">
+        <v>6.244573435449259</v>
+      </c>
+      <c r="D193" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6.856786517356048</v>
+      </c>
+      <c r="D194" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C195" t="n">
+        <v>7.453028823213096</v>
+      </c>
+      <c r="D195" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C196" t="n">
+        <v>7.660057401635681</v>
+      </c>
+      <c r="D196" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C197" t="n">
+        <v>8.1994980637227</v>
+      </c>
+      <c r="D197" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C198" t="n">
+        <v>9.101442850732198</v>
+      </c>
+      <c r="D198" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C199" t="n">
+        <v>9.505951421875851</v>
+      </c>
+      <c r="D199" t="n">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3226,6 +3226,104 @@
         <v>123</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C200" t="n">
+        <v>9.85802369676014</v>
+      </c>
+      <c r="D200" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C201" t="n">
+        <v>10.18123758845719</v>
+      </c>
+      <c r="D201" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C202" t="n">
+        <v>9.163113829611474</v>
+      </c>
+      <c r="D202" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C203" t="n">
+        <v>8.246802446650326</v>
+      </c>
+      <c r="D203" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C204" t="n">
+        <v>7.422122201985293</v>
+      </c>
+      <c r="D204" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C205" t="n">
+        <v>7.51489872951011</v>
+      </c>
+      <c r="D205" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C206" t="n">
+        <v>6.763408856559098</v>
+      </c>
+      <c r="D206" t="n">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3324,6 +3324,90 @@
         <v>126</v>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C207" t="n">
+        <v>7.199757815046782</v>
+      </c>
+      <c r="D207" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C208" t="n">
+        <v>6.479782033542103</v>
+      </c>
+      <c r="D208" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5.831803830187893</v>
+      </c>
+      <c r="D209" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C210" t="n">
+        <v>6.147036469657509</v>
+      </c>
+      <c r="D210" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C211" t="n">
+        <v>6.198261773571322</v>
+      </c>
+      <c r="D211" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C212" t="n">
+        <v>6.339131359334306</v>
+      </c>
+      <c r="D212" t="n">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3408,6 +3408,104 @@
         <v>130</v>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C213" t="n">
+        <v>6.584834125199977</v>
+      </c>
+      <c r="D213" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5.926350712679979</v>
+      </c>
+      <c r="D214" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C215" t="n">
+        <v>5.333715641411981</v>
+      </c>
+      <c r="D215" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5.647463620318568</v>
+      </c>
+      <c r="D216" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C217" t="n">
+        <v>5.873362165131311</v>
+      </c>
+      <c r="D217" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C218" t="n">
+        <v>6.578165624947069</v>
+      </c>
+      <c r="D218" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5.920349062452361</v>
+      </c>
+      <c r="D219" t="n">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3506,6 +3506,132 @@
         <v>134</v>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C220" t="n">
+        <v>5.328314156207125</v>
+      </c>
+      <c r="D220" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C221" t="n">
+        <v>5.672076359833391</v>
+      </c>
+      <c r="D221" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C222" t="n">
+        <v>6.022204530193477</v>
+      </c>
+      <c r="D222" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5.41998407717413</v>
+      </c>
+      <c r="D223" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C224" t="n">
+        <v>4.877985669456717</v>
+      </c>
+      <c r="D224" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C225" t="n">
+        <v>5.284484475244776</v>
+      </c>
+      <c r="D225" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C226" t="n">
+        <v>5.474573844857897</v>
+      </c>
+      <c r="D226" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C227" t="n">
+        <v>6.098675263171698</v>
+      </c>
+      <c r="D227" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C228" t="n">
+        <v>5.488807736854528</v>
+      </c>
+      <c r="D228" t="n">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3632,6 +3632,90 @@
         <v>139</v>
       </c>
     </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C229" t="n">
+        <v>5.732754747381396</v>
+      </c>
+      <c r="D229" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C230" t="n">
+        <v>5.909147201146977</v>
+      </c>
+      <c r="D230" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C231" t="n">
+        <v>6.090967115028423</v>
+      </c>
+      <c r="D231" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C232" t="n">
+        <v>5.481870403525581</v>
+      </c>
+      <c r="D232" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C233" t="n">
+        <v>5.584335270881199</v>
+      </c>
+      <c r="D233" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C234" t="n">
+        <v>5.688715369402343</v>
+      </c>
+      <c r="D234" t="n">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D234"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3716,6 +3716,90 @@
         <v>144</v>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C235" t="n">
+        <v>5.119843832462109</v>
+      </c>
+      <c r="D235" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C236" t="n">
+        <v>5.232367872736001</v>
+      </c>
+      <c r="D236" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4.709131085462401</v>
+      </c>
+      <c r="D237" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4.871514915995587</v>
+      </c>
+      <c r="D238" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4.962571269565598</v>
+      </c>
+      <c r="D239" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C240" t="n">
+        <v>5.528304394296076</v>
+      </c>
+      <c r="D240" t="n">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D240"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3800,6 +3800,132 @@
         <v>148</v>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C241" t="n">
+        <v>6.434946314960633</v>
+      </c>
+      <c r="D241" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C242" t="n">
+        <v>6.597856348250775</v>
+      </c>
+      <c r="D242" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C243" t="n">
+        <v>6.717817372764426</v>
+      </c>
+      <c r="D243" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C244" t="n">
+        <v>6.78499554649207</v>
+      </c>
+      <c r="D244" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C245" t="n">
+        <v>6.920695457421911</v>
+      </c>
+      <c r="D245" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C246" t="n">
+        <v>7.067944296941527</v>
+      </c>
+      <c r="D246" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C247" t="n">
+        <v>6.361149867247375</v>
+      </c>
+      <c r="D247" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C248" t="n">
+        <v>5.725034880522637</v>
+      </c>
+      <c r="D248" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C249" t="n">
+        <v>6.503639624273715</v>
+      </c>
+      <c r="D249" t="n">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3926,6 +3926,118 @@
         <v>155</v>
       </c>
     </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C250" t="n">
+        <v>6.651449615734481</v>
+      </c>
+      <c r="D250" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C251" t="n">
+        <v>5.986304654161033</v>
+      </c>
+      <c r="D251" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C252" t="n">
+        <v>6.101425897510284</v>
+      </c>
+      <c r="D252" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C253" t="n">
+        <v>6.199048711870448</v>
+      </c>
+      <c r="D253" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C254" t="n">
+        <v>6.244967591217637</v>
+      </c>
+      <c r="D254" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C255" t="n">
+        <v>6.349050384404598</v>
+      </c>
+      <c r="D255" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C256" t="n">
+        <v>6.503905271829101</v>
+      </c>
+      <c r="D256" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C257" t="n">
+        <v>6.585204087726964</v>
+      </c>
+      <c r="D257" t="n">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D257"/>
+  <dimension ref="A1:D264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4038,6 +4038,104 @@
         <v>162</v>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C258" t="n">
+        <v>5.926683678954268</v>
+      </c>
+      <c r="D258" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C259" t="n">
+        <v>5.334015311058841</v>
+      </c>
+      <c r="D259" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C260" t="n">
+        <v>5.455242931764723</v>
+      </c>
+      <c r="D260" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C261" t="n">
+        <v>5.776139574809706</v>
+      </c>
+      <c r="D261" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C262" t="n">
+        <v>5.833900970557804</v>
+      </c>
+      <c r="D262" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C263" t="n">
+        <v>5.976191238132384</v>
+      </c>
+      <c r="D263" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C264" t="n">
+        <v>6.116807502559029</v>
+      </c>
+      <c r="D264" t="n">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D264"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4136,6 +4136,118 @@
         <v>167</v>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C265" t="n">
+        <v>6.167780898413687</v>
+      </c>
+      <c r="D265" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C266" t="n">
+        <v>6.205161388707103</v>
+      </c>
+      <c r="D266" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C267" t="n">
+        <v>5.584645249836393</v>
+      </c>
+      <c r="D267" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C268" t="n">
+        <v>5.777219223968683</v>
+      </c>
+      <c r="D268" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C269" t="n">
+        <v>6.528257723084612</v>
+      </c>
+      <c r="D269" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C270" t="n">
+        <v>5.87543195077615</v>
+      </c>
+      <c r="D270" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C271" t="n">
+        <v>5.934186270283912</v>
+      </c>
+      <c r="D271" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C272" t="n">
+        <v>6.133320037743104</v>
+      </c>
+      <c r="D272" t="n">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4248,6 +4248,118 @@
         <v>173</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C273" t="n">
+        <v>6.334412497996976</v>
+      </c>
+      <c r="D273" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C274" t="n">
+        <v>5.700971248197279</v>
+      </c>
+      <c r="D274" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C275" t="n">
+        <v>5.845299634227589</v>
+      </c>
+      <c r="D275" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C276" t="n">
+        <v>5.969667711551581</v>
+      </c>
+      <c r="D276" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C277" t="n">
+        <v>6.234986276509428</v>
+      </c>
+      <c r="D277" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C278" t="n">
+        <v>6.465680768740278</v>
+      </c>
+      <c r="D278" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C279" t="n">
+        <v>6.575597341808862</v>
+      </c>
+      <c r="D279" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C280" t="n">
+        <v>6.654504509910569</v>
+      </c>
+      <c r="D280" t="n">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:D286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4360,6 +4360,90 @@
         <v>180</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C281" t="n">
+        <v>6.749568860052149</v>
+      </c>
+      <c r="D281" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C282" t="n">
+        <v>6.074611974046934</v>
+      </c>
+      <c r="D282" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C283" t="n">
+        <v>6.421732658278187</v>
+      </c>
+      <c r="D283" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C284" t="n">
+        <v>6.855633513567254</v>
+      </c>
+      <c r="D284" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C285" t="n">
+        <v>7.33842460607199</v>
+      </c>
+      <c r="D285" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C286" t="n">
+        <v>6.604582145464791</v>
+      </c>
+      <c r="D286" t="n">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D286"/>
+  <dimension ref="A1:D297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4444,6 +4444,160 @@
         <v>184</v>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C287" t="n">
+        <v>6.698933318971431</v>
+      </c>
+      <c r="D287" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C288" t="n">
+        <v>6.029039987074288</v>
+      </c>
+      <c r="D288" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C289" t="n">
+        <v>6.065579623359587</v>
+      </c>
+      <c r="D289" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C290" t="n">
+        <v>5.459021661023628</v>
+      </c>
+      <c r="D290" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C291" t="n">
+        <v>4.913119494921265</v>
+      </c>
+      <c r="D291" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C292" t="n">
+        <v>4.978627754853548</v>
+      </c>
+      <c r="D292" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C293" t="n">
+        <v>4.480764979368193</v>
+      </c>
+      <c r="D293" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C294" t="n">
+        <v>4.511666806812112</v>
+      </c>
+      <c r="D294" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C295" t="n">
+        <v>4.060500126130901</v>
+      </c>
+      <c r="D295" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C296" t="n">
+        <v>4.163297597678518</v>
+      </c>
+      <c r="D296" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C297" t="n">
+        <v>3.746967837910666</v>
+      </c>
+      <c r="D297" t="n">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4598,6 +4598,62 @@
         <v>189</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C298" t="n">
+        <v>3.372271054119599</v>
+      </c>
+      <c r="D298" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C299" t="n">
+        <v>3.035043948707639</v>
+      </c>
+      <c r="D299" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2.731539553836875</v>
+      </c>
+      <c r="D300" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2.458385598453188</v>
+      </c>
+      <c r="D301" t="n">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/SVM.xlsx
+++ b/Predictions/ModelsHistory/SVM.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4654,6 +4654,174 @@
         <v>189</v>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2.851727294205698</v>
+      </c>
+      <c r="D302" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2.566554564785128</v>
+      </c>
+      <c r="D303" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2.732138730255137</v>
+      </c>
+      <c r="D304" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2.458924857229623</v>
+      </c>
+      <c r="D305" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2.484808276779409</v>
+      </c>
+      <c r="D306" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2.529986609084489</v>
+      </c>
+      <c r="D307" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2.674557272460745</v>
+      </c>
+      <c r="D308" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2.407101545214671</v>
+      </c>
+      <c r="D309" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2.166391390693204</v>
+      </c>
+      <c r="D310" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2.181332020973846</v>
+      </c>
+      <c r="D311" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1.963198818876462</v>
+      </c>
+      <c r="D312" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1.766878936988816</v>
+      </c>
+      <c r="D313" t="n">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
